--- a/results/mp/logistic/corona/confidence/42/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="108">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,73 +40,97 @@
     <t>name</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>fraud</t>
+    <t>war</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>lowest</t>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>cancelled</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>uncertainty</t>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>emergency</t>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>empty</t>
   </si>
   <si>
     <t>cut</t>
@@ -115,27 +139,12 @@
     <t>lower</t>
   </si>
   <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>empty</t>
+    <t>stop</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -166,88 +175,109 @@
     <t>free</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>thank</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>gt</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>relief</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>dear</t>
   </si>
   <si>
     <t>safety</t>
@@ -256,30 +286,39 @@
     <t>care</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>helping</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
     <t>check</t>
   </si>
   <si>
@@ -292,7 +331,13 @@
     <t>stay</t>
   </si>
   <si>
+    <t>need</t>
+  </si>
+  <si>
     <t>shopping</t>
+  </si>
+  <si>
+    <t>grocery</t>
   </si>
 </sst>
 </file>
@@ -650,7 +695,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -658,10 +703,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -719,13 +764,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -737,19 +782,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -761,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -790,7 +835,7 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K4">
         <v>0.9152542372881356</v>
@@ -819,13 +864,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8116438356164384</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C5">
-        <v>237</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>237</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -837,19 +882,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K5">
-        <v>0.8916666666666667</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -861,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -869,13 +914,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8108108108108109</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -890,16 +935,16 @@
         <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K6">
-        <v>0.8571428571428571</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -911,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -919,38 +964,38 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7931034482758621</v>
+        <v>0.8013698630136986</v>
       </c>
       <c r="C7">
+        <v>234</v>
+      </c>
+      <c r="D7">
+        <v>234</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>58</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7">
+        <v>0.8846153846153846</v>
+      </c>
+      <c r="L7">
         <v>23</v>
       </c>
-      <c r="D7">
+      <c r="M7">
         <v>23</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>6</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7">
-        <v>0.8372093023255814</v>
-      </c>
-      <c r="L7">
-        <v>36</v>
-      </c>
-      <c r="M7">
-        <v>36</v>
-      </c>
       <c r="N7">
         <v>1</v>
       </c>
@@ -961,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -969,13 +1014,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7894736842105263</v>
+        <v>0.8</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -987,19 +1032,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K8">
-        <v>0.8328981723237598</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>319</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>319</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1011,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>64</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1040,16 +1085,16 @@
         <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K9">
-        <v>0.8103448275862069</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1061,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1069,13 +1114,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7666666666666667</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1087,19 +1132,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K10">
-        <v>0.8028169014084507</v>
+        <v>0.8120104438642297</v>
       </c>
       <c r="L10">
-        <v>114</v>
+        <v>311</v>
       </c>
       <c r="M10">
-        <v>114</v>
+        <v>311</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1111,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>28</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1119,13 +1164,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.72</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1140,16 +1185,16 @@
         <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K11">
-        <v>0.79375</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L11">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="M11">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1161,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1169,13 +1214,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6923076923076923</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1190,16 +1235,16 @@
         <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K12">
-        <v>0.7926829268292683</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L12">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1211,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1219,13 +1264,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6086956521739131</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1237,19 +1282,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K13">
-        <v>0.7924528301886793</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L13">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="M13">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1261,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1269,13 +1314,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5932203389830508</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C14">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1287,19 +1332,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K14">
-        <v>0.78125</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="M14">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1311,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1319,13 +1364,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5652173913043478</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1337,19 +1382,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1361,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1369,13 +1414,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5641025641025641</v>
+        <v>0.64</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1387,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K16">
-        <v>0.7777777777777778</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1411,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1419,13 +1464,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.55</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1437,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K17">
-        <v>0.7692307692307693</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M17">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1469,13 +1514,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5490196078431373</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1487,19 +1532,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K18">
-        <v>0.7407407407407407</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L18">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="M18">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1511,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1519,13 +1564,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5343915343915344</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="C19">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="D19">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1537,19 +1582,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K19">
-        <v>0.7291666666666666</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M19">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1561,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1569,13 +1614,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5251937984496124</v>
+        <v>0.5368217054263565</v>
       </c>
       <c r="C20">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D20">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1587,19 +1632,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K20">
-        <v>0.723404255319149</v>
+        <v>0.765625</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1611,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1619,13 +1664,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5167785234899329</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C21">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1637,19 +1682,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K21">
-        <v>0.696969696969697</v>
+        <v>0.7625</v>
       </c>
       <c r="L21">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="M21">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1661,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1669,13 +1714,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5161290322580645</v>
+        <v>0.5291005291005291</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1687,19 +1732,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K22">
-        <v>0.6825396825396826</v>
+        <v>0.75</v>
       </c>
       <c r="L22">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="M22">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1711,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1719,13 +1764,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5128205128205128</v>
+        <v>0.5234899328859061</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1737,19 +1782,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K23">
-        <v>0.6529411764705882</v>
+        <v>0.75</v>
       </c>
       <c r="L23">
-        <v>222</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>222</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1761,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>118</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1790,16 +1835,16 @@
         <v>15</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K24">
-        <v>0.6170212765957447</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L24">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="M24">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1811,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1819,13 +1864,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4666666666666667</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C25">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1837,19 +1882,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K25">
-        <v>0.6071428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L25">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1861,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1869,13 +1914,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4545454545454545</v>
+        <v>0.475</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1887,19 +1932,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L26">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M26">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1911,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1919,13 +1964,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4107142857142857</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D27">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1937,19 +1982,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K27">
-        <v>0.5899581589958159</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L27">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="M27">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1961,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>98</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1969,13 +2014,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.40625</v>
+        <v>0.4375</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1987,19 +2032,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K28">
-        <v>0.5898305084745763</v>
+        <v>0.6558823529411765</v>
       </c>
       <c r="L28">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="M28">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2011,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2019,13 +2064,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3818181818181818</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C29">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2037,19 +2082,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K29">
-        <v>0.5846153846153846</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L29">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="M29">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2061,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2069,13 +2114,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3783783783783784</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D30">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2087,19 +2132,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K30">
-        <v>0.5428571428571428</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L30">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="M30">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2111,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2119,13 +2164,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3111111111111111</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C31">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D31">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2137,19 +2182,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K31">
-        <v>0.54</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2161,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2169,13 +2214,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2987012987012987</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C32">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D32">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2187,19 +2232,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K32">
-        <v>0.5357142857142857</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="M32">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2211,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2219,13 +2264,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2619047619047619</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C33">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="D33">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2237,19 +2282,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>186</v>
+        <v>57</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K33">
-        <v>0.5142857142857142</v>
+        <v>0.6</v>
       </c>
       <c r="L33">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2261,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2269,13 +2314,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C34">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2287,19 +2332,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K34">
-        <v>0.5098039215686274</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L34">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="M34">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2311,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>25</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2319,13 +2364,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1581769436997319</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="C35">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="D35">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2337,19 +2382,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>314</v>
+        <v>37</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K35">
-        <v>0.5056179775280899</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L35">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M35">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2361,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2369,13 +2414,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.07333333333333333</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C36">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="D36">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2387,19 +2432,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>278</v>
+        <v>182</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K36">
-        <v>0.4848484848484849</v>
+        <v>0.5898305084745763</v>
       </c>
       <c r="L36">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="M36">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2411,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>17</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2419,37 +2464,37 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.02072538860103627</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C37">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D37">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E37">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>1134</v>
+        <v>56</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K37">
-        <v>0.4814814814814815</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L37">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M37">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2461,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2469,37 +2514,37 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01226993865030675</v>
+        <v>0.1635388739946381</v>
       </c>
       <c r="C38">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D38">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E38">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>3059</v>
+        <v>312</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K38">
-        <v>0.4666666666666667</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L38">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M38">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2511,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2519,37 +2564,37 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.009350163627863487</v>
+        <v>0.08666666666666667</v>
       </c>
       <c r="C39">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D39">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E39">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>2119</v>
+        <v>274</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K39">
-        <v>0.3974358974358974</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L39">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M39">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2561,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2569,141 +2614,213 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.004417797412432944</v>
+        <v>0.01896551724137931</v>
       </c>
       <c r="C40">
+        <v>22</v>
+      </c>
+      <c r="D40">
+        <v>23</v>
+      </c>
+      <c r="E40">
+        <v>0.04</v>
+      </c>
+      <c r="F40">
+        <v>0.96</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1138</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K40">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="L40">
+        <v>15</v>
+      </c>
+      <c r="M40">
+        <v>15</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.01611863313990974</v>
+      </c>
+      <c r="C41">
+        <v>50</v>
+      </c>
+      <c r="D41">
+        <v>55</v>
+      </c>
+      <c r="E41">
+        <v>0.09</v>
+      </c>
+      <c r="F41">
+        <v>0.91</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>3052</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K41">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="L41">
+        <v>27</v>
+      </c>
+      <c r="M41">
+        <v>27</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.0107728337236534</v>
+      </c>
+      <c r="C42">
+        <v>23</v>
+      </c>
+      <c r="D42">
+        <v>31</v>
+      </c>
+      <c r="E42">
+        <v>0.26</v>
+      </c>
+      <c r="F42">
+        <v>0.74</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>2112</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K42">
+        <v>0.5280898876404494</v>
+      </c>
+      <c r="L42">
+        <v>47</v>
+      </c>
+      <c r="M42">
+        <v>47</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.00630715862503942</v>
+      </c>
+      <c r="C43">
+        <v>20</v>
+      </c>
+      <c r="D43">
+        <v>50</v>
+      </c>
+      <c r="E43">
+        <v>0.6</v>
+      </c>
+      <c r="F43">
+        <v>0.4</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>3151</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K43">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="L43">
         <v>14</v>
-      </c>
-      <c r="D40">
-        <v>46</v>
-      </c>
-      <c r="E40">
-        <v>0.7</v>
-      </c>
-      <c r="F40">
-        <v>0.3</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>3155</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K40">
-        <v>0.3424657534246575</v>
-      </c>
-      <c r="L40">
-        <v>25</v>
-      </c>
-      <c r="M40">
-        <v>25</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K41">
-        <v>0.288135593220339</v>
-      </c>
-      <c r="L41">
-        <v>17</v>
-      </c>
-      <c r="M41">
-        <v>17</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K42">
-        <v>0.28125</v>
-      </c>
-      <c r="L42">
-        <v>18</v>
-      </c>
-      <c r="M42">
-        <v>18</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K43">
-        <v>0.2321428571428572</v>
-      </c>
-      <c r="L43">
-        <v>13</v>
       </c>
       <c r="M43">
         <v>14</v>
       </c>
       <c r="N43">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K44">
-        <v>0.1284403669724771</v>
+        <v>0.5</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M44">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2715,15 +2832,15 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>95</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K45">
-        <v>0.1048387096774194</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L45">
         <v>13</v>
@@ -2741,47 +2858,47 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>111</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K46">
-        <v>0.07567567567567568</v>
+        <v>0.4634146341463415</v>
       </c>
       <c r="L46">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M46">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>171</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K47">
-        <v>0.04220779220779221</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L47">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M47">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2793,21 +2910,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>295</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K48">
-        <v>0.0360576923076923</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L48">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M48">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2819,33 +2936,345 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>401</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="K49">
-        <v>0.01004079071226859</v>
+        <v>0.3508771929824561</v>
       </c>
       <c r="L49">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M49">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="N49">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>3155</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K50">
+        <v>0.328125</v>
+      </c>
+      <c r="L50">
+        <v>21</v>
+      </c>
+      <c r="M50">
+        <v>21</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K51">
+        <v>0.3114754098360656</v>
+      </c>
+      <c r="L51">
+        <v>19</v>
+      </c>
+      <c r="M51">
+        <v>19</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K52">
+        <v>0.3111111111111111</v>
+      </c>
+      <c r="L52">
+        <v>14</v>
+      </c>
+      <c r="M52">
+        <v>14</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K53">
+        <v>0.3050847457627119</v>
+      </c>
+      <c r="L53">
+        <v>18</v>
+      </c>
+      <c r="M53">
+        <v>18</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K54">
+        <v>0.1467889908256881</v>
+      </c>
+      <c r="L54">
+        <v>16</v>
+      </c>
+      <c r="M54">
+        <v>16</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K55">
+        <v>0.1129032258064516</v>
+      </c>
+      <c r="L55">
+        <v>14</v>
+      </c>
+      <c r="M55">
+        <v>14</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K56">
+        <v>0.0918918918918919</v>
+      </c>
+      <c r="L56">
+        <v>17</v>
+      </c>
+      <c r="M56">
+        <v>17</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K57">
+        <v>0.05863192182410423</v>
+      </c>
+      <c r="L57">
+        <v>18</v>
+      </c>
+      <c r="M57">
+        <v>19</v>
+      </c>
+      <c r="N57">
+        <v>0.95</v>
+      </c>
+      <c r="O57">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K58">
+        <v>0.04498269896193772</v>
+      </c>
+      <c r="L58">
+        <v>13</v>
+      </c>
+      <c r="M58">
+        <v>13</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K59">
+        <v>0.03365384615384615</v>
+      </c>
+      <c r="L59">
+        <v>14</v>
+      </c>
+      <c r="M59">
+        <v>14</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K60">
+        <v>0.02113459399332592</v>
+      </c>
+      <c r="L60">
+        <v>19</v>
+      </c>
+      <c r="M60">
+        <v>21</v>
+      </c>
+      <c r="N60">
+        <v>0.9</v>
+      </c>
+      <c r="O60">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K61">
+        <v>0.009430996541967935</v>
+      </c>
+      <c r="L61">
+        <v>30</v>
+      </c>
+      <c r="M61">
+        <v>50</v>
+      </c>
+      <c r="N61">
+        <v>0.6</v>
+      </c>
+      <c r="O61">
+        <v>0.4</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>3151</v>
       </c>
     </row>
   </sheetData>
